--- a/Figure 2 -gh.xlsx
+++ b/Figure 2 -gh.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PhD\1- Fossil Carbon Article\Cell Reports Sustainability\Files for submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PhD\1- Fossil Carbon Article\Results\Final Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5200BF8-F1F7-4619-AF90-3919C6FE6DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97B512F-2A62-47C6-BD69-0561D89D540F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1092" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Embodied (%)" sheetId="8" r:id="rId1"/>
     <sheet name="Embodied (Mt)" sheetId="2" r:id="rId2"/>
-    <sheet name="Capital Acc. by sector(Mtyr)" sheetId="5" r:id="rId3"/>
+    <sheet name="Embodied (Gt)" sheetId="7" r:id="rId3"/>
+    <sheet name="Capital Acc. by sector(Mtyr)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="79">
   <si>
     <t>Iron ores</t>
   </si>
@@ -55,6 +56,12 @@
     <t>Paraffin Waxes</t>
   </si>
   <si>
+    <t>Petroleum Coke</t>
+  </si>
+  <si>
+    <t>Non-specified Petroleum Products</t>
+  </si>
+  <si>
     <t>Plastics; basic</t>
   </si>
   <si>
@@ -142,9 +149,6 @@
     <t>Medical; precision and optical instruments</t>
   </si>
   <si>
-    <t>Flows in Mt/year</t>
-  </si>
-  <si>
     <t>Furniture and other manufactured goods</t>
   </si>
   <si>
@@ -244,17 +248,41 @@
     <t>Manuf. of other products</t>
   </si>
   <si>
-    <t>Durable type</t>
-  </si>
-  <si>
-    <t>Mt FC/year</t>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Share(%)</t>
+  </si>
+  <si>
+    <t>Acc. (MtC/year)</t>
+  </si>
+  <si>
+    <t>Per Product</t>
+  </si>
+  <si>
+    <t>Per Industry</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Mt/year</t>
+  </si>
+  <si>
+    <t>Flows in Mt/year FC</t>
+  </si>
+  <si>
+    <t>Flows in Gt/year FC</t>
+  </si>
+  <si>
+    <t>Flows in % of the total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,12 +292,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -284,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -292,117 +328,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,72 +630,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF202AB2-DCBD-4FB9-92D0-9A50A771EAA8}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:Q1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -814,11 +755,11 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2">
         <f>'Embodied (Mt)'!B3/SUM('Embodied (Mt)'!B$2:B21)*100</f>
-        <v>0.46502027660980572</v>
+        <v>0.45684586465279431</v>
       </c>
       <c r="C3" s="2">
         <f>'Embodied (Mt)'!C3/SUM('Embodied (Mt)'!C$2:C21)*100</f>
@@ -875,11 +816,11 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2">
         <f>'Embodied (Mt)'!B4/SUM('Embodied (Mt)'!B$2:B22)*100</f>
-        <v>3.5822588498224971E-2</v>
+        <v>3.5192877041585198E-2</v>
       </c>
       <c r="C4" s="2">
         <f>'Embodied (Mt)'!C4/SUM('Embodied (Mt)'!C$2:C22)*100</f>
@@ -997,7 +938,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2">
         <f>'Embodied (Mt)'!B6/SUM('Embodied (Mt)'!B$2:B24)*100</f>
@@ -1180,11 +1121,11 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2">
         <f>'Embodied (Mt)'!B9/SUM('Embodied (Mt)'!B$2:B27)*100</f>
-        <v>11.234210456226144</v>
+        <v>11.036728606723882</v>
       </c>
       <c r="C9" s="2">
         <f>'Embodied (Mt)'!C9/SUM('Embodied (Mt)'!C$2:C27)*100</f>
@@ -1212,40 +1153,40 @@
       </c>
       <c r="I9" s="2">
         <f>'Embodied (Mt)'!I9/SUM('Embodied (Mt)'!I$2:I27)*100</f>
-        <v>11.052265901062302</v>
+        <v>10.310752878236187</v>
       </c>
       <c r="J9" s="2">
         <f>'Embodied (Mt)'!J9/SUM('Embodied (Mt)'!J$2:J27)*100</f>
-        <v>20.788884424566785</v>
+        <v>19.970822778505266</v>
       </c>
       <c r="K9" s="2">
         <f>'Embodied (Mt)'!K9/SUM('Embodied (Mt)'!K$2:K27)*100</f>
-        <v>48.841878645537271</v>
+        <v>45.730258399013564</v>
       </c>
       <c r="L9" s="2">
         <f>'Embodied (Mt)'!L9/SUM('Embodied (Mt)'!L$2:L27)*100</f>
-        <v>35.939563507429703</v>
+        <v>33.671792283610152</v>
       </c>
       <c r="M9" s="2">
         <f>'Embodied (Mt)'!M9/SUM('Embodied (Mt)'!M$2:M27)*100</f>
-        <v>43.137827450692278</v>
+        <v>38.767082102053315</v>
       </c>
       <c r="N9" s="2">
         <f>'Embodied (Mt)'!N9/SUM('Embodied (Mt)'!N$2:N27)*100</f>
-        <v>50.070214142919347</v>
+        <v>46.849318799079839</v>
       </c>
       <c r="O9" s="2">
         <f>'Embodied (Mt)'!O9/SUM('Embodied (Mt)'!O$2:O27)*100</f>
-        <v>17.54184992684565</v>
+        <v>15.464312444925307</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <f>'Embodied (Mt)'!B10/SUM('Embodied (Mt)'!B$2:B28)*100</f>
-        <v>83.36787382309376</v>
+        <v>81.902382146949193</v>
       </c>
       <c r="C10" s="2">
         <f>'Embodied (Mt)'!C10/SUM('Embodied (Mt)'!C$2:C28)*100</f>
@@ -1273,40 +1214,40 @@
       </c>
       <c r="I10" s="2">
         <f>'Embodied (Mt)'!I10/SUM('Embodied (Mt)'!I$2:I28)*100</f>
-        <v>14.609474232928916</v>
+        <v>13.629302791404138</v>
       </c>
       <c r="J10" s="2">
         <f>'Embodied (Mt)'!J10/SUM('Embodied (Mt)'!J$2:J28)*100</f>
-        <v>35.820032080270892</v>
+        <v>34.410481004459683</v>
       </c>
       <c r="K10" s="2">
         <f>'Embodied (Mt)'!K10/SUM('Embodied (Mt)'!K$2:K28)*100</f>
-        <v>14.941641062174114</v>
+        <v>13.989738429952187</v>
       </c>
       <c r="L10" s="2">
         <f>'Embodied (Mt)'!L10/SUM('Embodied (Mt)'!L$2:L28)*100</f>
-        <v>26.122779681948028</v>
+        <v>24.474443356531797</v>
       </c>
       <c r="M10" s="2">
         <f>'Embodied (Mt)'!M10/SUM('Embodied (Mt)'!M$2:M28)*100</f>
-        <v>8.6315746949437706</v>
+        <v>7.7570194106639221</v>
       </c>
       <c r="N10" s="2">
         <f>'Embodied (Mt)'!N10/SUM('Embodied (Mt)'!N$2:N28)*100</f>
-        <v>11.267375710911914</v>
+        <v>10.542572779952238</v>
       </c>
       <c r="O10" s="2">
         <f>'Embodied (Mt)'!O10/SUM('Embodied (Mt)'!O$2:O28)*100</f>
-        <v>37.629063335467059</v>
+        <v>33.172532820441461</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2">
         <f>'Embodied (Mt)'!B11/SUM('Embodied (Mt)'!B$2:B29)*100</f>
-        <v>4.8970728555720555</v>
+        <v>6.5688505046325396</v>
       </c>
       <c r="C11" s="2">
         <f>'Embodied (Mt)'!C11/SUM('Embodied (Mt)'!C$2:C29)*100</f>
@@ -1334,36 +1275,36 @@
       </c>
       <c r="I11" s="2">
         <f>'Embodied (Mt)'!I11/SUM('Embodied (Mt)'!I$2:I29)*100</f>
-        <v>19.682404247658052</v>
+        <v>25.07103167895438</v>
       </c>
       <c r="J11" s="2">
         <f>'Embodied (Mt)'!J11/SUM('Embodied (Mt)'!J$2:J29)*100</f>
-        <v>11.210882908899537</v>
+        <v>14.704816002974571</v>
       </c>
       <c r="K11" s="2">
         <f>'Embodied (Mt)'!K11/SUM('Embodied (Mt)'!K$2:K29)*100</f>
-        <v>18.62227243933328</v>
+        <v>23.806687775433318</v>
       </c>
       <c r="L11" s="2">
         <f>'Embodied (Mt)'!L11/SUM('Embodied (Mt)'!L$2:L29)*100</f>
-        <v>18.43243661690849</v>
+        <v>23.579315292800391</v>
       </c>
       <c r="M11" s="2">
         <f>'Embodied (Mt)'!M11/SUM('Embodied (Mt)'!M$2:M29)*100</f>
-        <v>30.856178110203032</v>
+        <v>37.861863277296465</v>
       </c>
       <c r="N11" s="2">
         <f>'Embodied (Mt)'!N11/SUM('Embodied (Mt)'!N$2:N29)*100</f>
-        <v>18.815816792279954</v>
+        <v>24.038198245268749</v>
       </c>
       <c r="O11" s="2">
         <f>'Embodied (Mt)'!O11/SUM('Embodied (Mt)'!O$2:O29)*100</f>
-        <v>36.767829646689826</v>
+        <v>44.256618145052975</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2">
         <f>'Embodied (Mt)'!B12/SUM('Embodied (Mt)'!B$2:B30)*100</f>
@@ -1395,36 +1336,36 @@
       </c>
       <c r="I12" s="2">
         <f>'Embodied (Mt)'!I12/SUM('Embodied (Mt)'!I$2:I30)*100</f>
-        <v>7.0008039034056446E-2</v>
+        <v>6.5311095157481569E-2</v>
       </c>
       <c r="J12" s="2">
         <f>'Embodied (Mt)'!J12/SUM('Embodied (Mt)'!J$2:J30)*100</f>
-        <v>3.5119124757202025E-2</v>
+        <v>3.3737155026629752E-2</v>
       </c>
       <c r="K12" s="2">
         <f>'Embodied (Mt)'!K12/SUM('Embodied (Mt)'!K$2:K30)*100</f>
-        <v>7.9359003993705907E-2</v>
+        <v>7.4303197574733665E-2</v>
       </c>
       <c r="L12" s="2">
         <f>'Embodied (Mt)'!L12/SUM('Embodied (Mt)'!L$2:L30)*100</f>
-        <v>5.2963740261456602E-2</v>
+        <v>4.9621750700399342E-2</v>
       </c>
       <c r="M12" s="2">
         <f>'Embodied (Mt)'!M12/SUM('Embodied (Mt)'!M$2:M30)*100</f>
-        <v>6.2019055889674076E-3</v>
+        <v>5.5735255427849404E-3</v>
       </c>
       <c r="N12" s="2">
         <f>'Embodied (Mt)'!N12/SUM('Embodied (Mt)'!N$2:N30)*100</f>
-        <v>0.18301392122637516</v>
+        <v>0.17124107989094017</v>
       </c>
       <c r="O12" s="2">
         <f>'Embodied (Mt)'!O12/SUM('Embodied (Mt)'!O$2:O30)*100</f>
-        <v>9.9540617215702509E-2</v>
+        <v>8.7751703041797371E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2">
         <f>'Embodied (Mt)'!B13/SUM('Embodied (Mt)'!B$2:B31)*100</f>
@@ -1456,36 +1397,36 @@
       </c>
       <c r="I13" s="2">
         <f>'Embodied (Mt)'!I13/SUM('Embodied (Mt)'!I$2:I31)*100</f>
-        <v>9.1336307492419486</v>
+        <v>8.5208418237061458</v>
       </c>
       <c r="J13" s="2">
         <f>'Embodied (Mt)'!J13/SUM('Embodied (Mt)'!J$2:J31)*100</f>
-        <v>0.91614790393702172</v>
+        <v>0.88009664466671345</v>
       </c>
       <c r="K13" s="2">
         <f>'Embodied (Mt)'!K13/SUM('Embodied (Mt)'!K$2:K31)*100</f>
-        <v>5.3985089762395182</v>
+        <v>5.0545805628093836</v>
       </c>
       <c r="L13" s="2">
         <f>'Embodied (Mt)'!L13/SUM('Embodied (Mt)'!L$2:L31)*100</f>
-        <v>0.9181866179157292</v>
+        <v>0.86024943151180866</v>
       </c>
       <c r="M13" s="2">
         <f>'Embodied (Mt)'!M13/SUM('Embodied (Mt)'!M$2:M31)*100</f>
-        <v>1.95166951462111</v>
+        <v>1.7539254241737876</v>
       </c>
       <c r="N13" s="2">
         <f>'Embodied (Mt)'!N13/SUM('Embodied (Mt)'!N$2:N31)*100</f>
-        <v>1.2676365565284449</v>
+        <v>1.18609257369368</v>
       </c>
       <c r="O13" s="2">
         <f>'Embodied (Mt)'!O13/SUM('Embodied (Mt)'!O$2:O31)*100</f>
-        <v>1.9783004588364215</v>
+        <v>1.7440039980370938</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2">
         <f>'Embodied (Mt)'!B14/SUM('Embodied (Mt)'!B$2:B32)*100</f>
@@ -1517,36 +1458,36 @@
       </c>
       <c r="I14" s="2">
         <f>'Embodied (Mt)'!I14/SUM('Embodied (Mt)'!I$2:I32)*100</f>
-        <v>10.082881255164528</v>
+        <v>9.4064056957414408</v>
       </c>
       <c r="J14" s="2">
         <f>'Embodied (Mt)'!J14/SUM('Embodied (Mt)'!J$2:J32)*100</f>
-        <v>1.7046116174047541</v>
+        <v>1.6375335887260323</v>
       </c>
       <c r="K14" s="2">
         <f>'Embodied (Mt)'!K14/SUM('Embodied (Mt)'!K$2:K32)*100</f>
-        <v>4.1433447085880051</v>
+        <v>3.8793803476522837</v>
       </c>
       <c r="L14" s="2">
         <f>'Embodied (Mt)'!L14/SUM('Embodied (Mt)'!L$2:L32)*100</f>
-        <v>2.1722205336717315</v>
+        <v>2.0351543387238618</v>
       </c>
       <c r="M14" s="2">
         <f>'Embodied (Mt)'!M14/SUM('Embodied (Mt)'!M$2:M32)*100</f>
-        <v>3.9711827605790515</v>
+        <v>3.5688206203151336</v>
       </c>
       <c r="N14" s="2">
         <f>'Embodied (Mt)'!N14/SUM('Embodied (Mt)'!N$2:N32)*100</f>
-        <v>4.1372705978282749</v>
+        <v>3.8711300223813119</v>
       </c>
       <c r="O14" s="2">
         <f>'Embodied (Mt)'!O14/SUM('Embodied (Mt)'!O$2:O32)*100</f>
-        <v>3.855724771909534</v>
+        <v>3.3990789354090252</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <f>'Embodied (Mt)'!B15/SUM('Embodied (Mt)'!B$2:B33)*100</f>
@@ -1578,7 +1519,7 @@
       </c>
       <c r="I15" s="2">
         <f>'Embodied (Mt)'!I15/SUM('Embodied (Mt)'!I$2:I33)*100</f>
-        <v>16.450824798178349</v>
+        <v>15.347114397679606</v>
       </c>
       <c r="J15" s="2">
         <f>'Embodied (Mt)'!J15/SUM('Embodied (Mt)'!J$2:J33)*100</f>
@@ -1607,7 +1548,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <f>'Embodied (Mt)'!B16/SUM('Embodied (Mt)'!B$2:B34)*100</f>
@@ -1639,11 +1580,11 @@
       </c>
       <c r="I16" s="2">
         <f>'Embodied (Mt)'!I16/SUM('Embodied (Mt)'!I$2:I34)*100</f>
-        <v>0.36098366598178933</v>
+        <v>0.33676473280110264</v>
       </c>
       <c r="J16" s="2">
         <f>'Embodied (Mt)'!J16/SUM('Embodied (Mt)'!J$2:J34)*100</f>
-        <v>1.399467152168123</v>
+        <v>1.344396837728413</v>
       </c>
       <c r="K16" s="2">
         <f>'Embodied (Mt)'!K16/SUM('Embodied (Mt)'!K$2:K34)*100</f>
@@ -1655,11 +1596,11 @@
       </c>
       <c r="M16" s="2">
         <f>'Embodied (Mt)'!M16/SUM('Embodied (Mt)'!M$2:M34)*100</f>
-        <v>0.16104091927136496</v>
+        <v>0.14472417616114686</v>
       </c>
       <c r="N16" s="2">
         <f>'Embodied (Mt)'!N16/SUM('Embodied (Mt)'!N$2:N34)*100</f>
-        <v>0.68399095661980325</v>
+        <v>0.63999147858448502</v>
       </c>
       <c r="O16" s="2">
         <f>'Embodied (Mt)'!O16/SUM('Embodied (Mt)'!O$2:O34)*100</f>
@@ -1668,7 +1609,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <f>'Embodied (Mt)'!B17/SUM('Embodied (Mt)'!B$2:B35)*100</f>
@@ -1700,36 +1641,36 @@
       </c>
       <c r="I17" s="2">
         <f>'Embodied (Mt)'!I17/SUM('Embodied (Mt)'!I$2:I35)*100</f>
-        <v>15.963315505999805</v>
+        <v>14.892312831874566</v>
       </c>
       <c r="J17" s="2">
         <f>'Embodied (Mt)'!J17/SUM('Embodied (Mt)'!J$2:J35)*100</f>
-        <v>6.1637222072643176</v>
+        <v>5.9211740920426097</v>
       </c>
       <c r="K17" s="2">
         <f>'Embodied (Mt)'!K17/SUM('Embodied (Mt)'!K$2:K35)*100</f>
-        <v>3.8597477622269185</v>
+        <v>3.6138508062441002</v>
       </c>
       <c r="L17" s="2">
         <f>'Embodied (Mt)'!L17/SUM('Embodied (Mt)'!L$2:L35)*100</f>
-        <v>10.482282337013865</v>
+        <v>9.8208547646139444</v>
       </c>
       <c r="M17" s="2">
         <f>'Embodied (Mt)'!M17/SUM('Embodied (Mt)'!M$2:M35)*100</f>
-        <v>8.7535528886792218</v>
+        <v>7.8666387153590271</v>
       </c>
       <c r="N17" s="2">
         <f>'Embodied (Mt)'!N17/SUM('Embodied (Mt)'!N$2:N35)*100</f>
-        <v>5.4591702229687904</v>
+        <v>5.1079950531922487</v>
       </c>
       <c r="O17" s="2">
         <f>'Embodied (Mt)'!O17/SUM('Embodied (Mt)'!O$2:O35)*100</f>
-        <v>1.6135575224100929</v>
+        <v>1.4224587360209036</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2">
         <f>'Embodied (Mt)'!B18/SUM('Embodied (Mt)'!B$2:B36)*100</f>
@@ -1761,27 +1702,27 @@
       </c>
       <c r="I18" s="2">
         <f>'Embodied (Mt)'!I18/SUM('Embodied (Mt)'!I$2:I36)*100</f>
-        <v>1.6553142885151033</v>
+        <v>1.544256781141333</v>
       </c>
       <c r="J18" s="2">
         <f>'Embodied (Mt)'!J18/SUM('Embodied (Mt)'!J$2:J36)*100</f>
-        <v>21.96113258073137</v>
+        <v>21.096941895870092</v>
       </c>
       <c r="K18" s="2">
         <f>'Embodied (Mt)'!K18/SUM('Embodied (Mt)'!K$2:K36)*100</f>
-        <v>4.1132474019072012</v>
+        <v>3.8512004813204368</v>
       </c>
       <c r="L18" s="2">
         <f>'Embodied (Mt)'!L18/SUM('Embodied (Mt)'!L$2:L36)*100</f>
-        <v>5.8795669648509952</v>
+        <v>5.5085687815076509</v>
       </c>
       <c r="M18" s="2">
         <f>'Embodied (Mt)'!M18/SUM('Embodied (Mt)'!M$2:M36)*100</f>
-        <v>2.1117734888056119</v>
+        <v>1.8978075869732496</v>
       </c>
       <c r="N18" s="2">
         <f>'Embodied (Mt)'!N18/SUM('Embodied (Mt)'!N$2:N36)*100</f>
-        <v>6.8205879788910186</v>
+        <v>6.3818361093513412</v>
       </c>
       <c r="O18" s="2">
         <f>'Embodied (Mt)'!O18/SUM('Embodied (Mt)'!O$2:O36)*100</f>
@@ -1790,7 +1731,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2">
         <f>'Embodied (Mt)'!B19/SUM('Embodied (Mt)'!B$2:B37)*100</f>
@@ -1822,7 +1763,7 @@
       </c>
       <c r="I19" s="2">
         <f>'Embodied (Mt)'!I19/SUM('Embodied (Mt)'!I$2:I37)*100</f>
-        <v>0.93889731623513639</v>
+        <v>0.87590529330362821</v>
       </c>
       <c r="J19" s="2">
         <f>'Embodied (Mt)'!J19/SUM('Embodied (Mt)'!J$2:J37)*100</f>
@@ -1838,11 +1779,11 @@
       </c>
       <c r="M19" s="2">
         <f>'Embodied (Mt)'!M19/SUM('Embodied (Mt)'!M$2:M37)*100</f>
-        <v>0.41899826661556405</v>
+        <v>0.37654516146113703</v>
       </c>
       <c r="N19" s="2">
         <f>'Embodied (Mt)'!N19/SUM('Embodied (Mt)'!N$2:N37)*100</f>
-        <v>1.2949231198260764</v>
+        <v>1.2116238586051664</v>
       </c>
       <c r="O19" s="2">
         <f>'Embodied (Mt)'!O19/SUM('Embodied (Mt)'!O$2:O37)*100</f>
@@ -1851,7 +1792,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
         <f>'Embodied (Mt)'!B20/SUM('Embodied (Mt)'!B$2:B38)*100</f>
@@ -1907,7 +1848,7 @@
       </c>
       <c r="O20" s="2">
         <f>'Embodied (Mt)'!O20/SUM('Embodied (Mt)'!O$2:O38)*100</f>
-        <v>0.51413372062569818</v>
+        <v>0.45324321707142901</v>
       </c>
     </row>
   </sheetData>
@@ -1922,67 +1863,62 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:P1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2037,7 +1973,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2">
         <v>0.10574678042918401</v>
@@ -2087,7 +2023,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2">
         <v>8.1461467184696292E-3</v>
@@ -2337,7 +2273,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>2.5546877118363027</v>
@@ -2387,7 +2323,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <v>18.95806417795399</v>
@@ -2437,10 +2373,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2">
-        <v>1.113606683517627</v>
+        <v>1.5205014332644522</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -2461,33 +2397,33 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>6.0283655616202632</v>
+        <v>8.2310375937507434</v>
       </c>
       <c r="J11" s="2">
-        <v>1.0377723630662685</v>
+        <v>1.4169584188020203</v>
       </c>
       <c r="K11" s="2">
-        <v>5.2503605690506712</v>
+        <v>7.1687615462038003</v>
       </c>
       <c r="L11" s="2">
-        <v>3.7793954789248634</v>
+        <v>5.1603284423781783</v>
       </c>
       <c r="M11" s="2">
-        <v>9.6541552775559989</v>
+        <v>13.181635090509152</v>
       </c>
       <c r="N11" s="2">
-        <v>1.3130238979562874</v>
+        <v>1.7927826299018537</v>
       </c>
       <c r="O11" s="2">
-        <v>5.9678251006325072</v>
+        <v>8.1483765797097689</v>
       </c>
       <c r="P11" s="2">
-        <v>5.9678251006325071E-3</v>
+        <v>8.1483765797097686E-3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -2537,7 +2473,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -2587,7 +2523,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -2637,7 +2573,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -2687,7 +2623,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -2737,7 +2673,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -2787,7 +2723,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -2837,7 +2773,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -2887,7 +2823,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -2941,420 +2877,1530 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F6742F-7D26-44B6-B421-AB34BF179DEE}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5.733223289031453E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.0574678042918401E-4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.0560316746610637E-4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8.1461467184696299E-6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.0635215906735518E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.5472017229856913E-4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.1840500247331247E-5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4.6396434649691191E-8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.5546877118363025E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8.3493861210757624E-4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.12382222923377699</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3.3851097811773523E-3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.9243916728153519E-3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.3770471600299924E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>7.3690650160659222E-3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1.349678767921335E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>3.4940491008828385E-3</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2.8472361113211055E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.8958064177953989E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.1856351724313034E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.9275387024253949E-3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.3554326698638323E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7.2115781143245175E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>4.4746185593483381E-3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3.3157994458708679E-3</v>
+      </c>
+      <c r="L12" s="2">
+        <v>4.2126439361960064E-3</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5.3562270403435946E-3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2.7006119195058637E-3</v>
+      </c>
+      <c r="O12" s="2">
+        <v>7.862711323671904E-4</v>
+      </c>
+      <c r="P12" s="2">
+        <v>6.1076128464631306E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.5205014332644522E-3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>8.2310375937507431E-3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1.4169584188020203E-3</v>
+      </c>
+      <c r="L13" s="2">
+        <v>7.1687615462038001E-3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>5.160328442378178E-3</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1.3181635090509149E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1.7927826299018539E-3</v>
+      </c>
+      <c r="P13" s="2">
+        <v>8.1483765797097686E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2.1442200162090945E-5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3.2509176470988719E-6</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2.2374465131743383E-5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.085971022992579E-5</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.9404269497924471E-6</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1.2771258079400239E-5</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.6156542272431971E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3.3321414811203123E-3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.7974664257715146E-3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>8.4806253255236078E-5</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.5220547735434625E-3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.8826541627039878E-4</v>
+      </c>
+      <c r="N15" s="2">
+        <v>6.1063040527349903E-4</v>
+      </c>
+      <c r="O15" s="2">
+        <v>8.845946530090447E-5</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3.2110002815735139E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>8.6774835645730996E-4</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3.0882047414391841E-3</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.5779299816788393E-4</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.1681739569015805E-3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>4.4539312055226444E-4</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1.2424874807650437E-3</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2.8871110019998089E-4</v>
+      </c>
+      <c r="P16" s="2">
+        <v>6.2582674299906257E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5.0385910392724042E-3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1.1056278861719767E-4</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.2954629401991456E-4</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5.0385826628736937E-5</v>
+      </c>
+      <c r="O18" s="2">
+        <v>4.773093201015163E-5</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4.8892757325161842E-3</v>
+      </c>
+      <c r="K19" s="2">
+        <v>5.7056528128029602E-4</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1.0882166783509541E-3</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2.1492921037353724E-3</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2.7387759597376788E-3</v>
+      </c>
+      <c r="O19" s="2">
+        <v>3.8095720451053618E-4</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2.6189821852648515E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5.0699292245914255E-4</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2.0329046908361972E-3</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1.1596883269793295E-3</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1.2055491776171261E-3</v>
+      </c>
+      <c r="N20" s="2">
+        <v>6.6072308434122519E-4</v>
+      </c>
+      <c r="O20" s="2">
+        <v>4.7596100202632291E-4</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2.8756732032688808E-4</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1.3109447036786133E-4</v>
+      </c>
+      <c r="O21" s="2">
+        <v>9.0363603191829684E-5</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.312780143143855E-4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>8.3449584936484144E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B0D71B-E971-4B65-B14A-A5A7A56F687A}">
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Z1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2">
+        <v>23</v>
+      </c>
+      <c r="B2">
         <v>4.7481078010987797E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>1.30480239212112E-3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>1.21431949009632E-3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>1.4783228307343999E-4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>2.52848705967536E-3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>2.4620937691792E-4</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>4.6220175386326402E-3</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>0.11723905774660499</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>1.14346276044944E-3</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>0.325138321309489</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>0.87994071605549296</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>0.13504204100622899</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>0.24100167084607599</v>
       </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>3.00670744942323E-2</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <v>6.12182389232181E-2</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>1.27141065801168E-3</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2">
         <v>3.5070396301379201E-3</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2">
         <v>0.121009354854845</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2">
         <v>6.0842443375878102E-2</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2">
         <v>0.79660471822703904</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2">
         <v>0.42068514371628601</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2">
         <v>8.9327232276831996E-4</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2">
         <v>6.9147819070559998E-3</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2">
         <v>0.13123798028467198</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2">
+        <v>44</v>
+      </c>
+      <c r="B3">
         <v>1.0544976335946501E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>1.23996333836621E-3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>8.5189010405281704E-4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>9.7891026780833491E-4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>3.8408382660871199E-3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>2.7443289767942398E-4</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>1.9830803947082898E-3</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>8.6004818983913503E-2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>1.4966101557041799E-4</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>4.6869286256143901E-3</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>2.3352322198605099E-2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <v>1.9226961289573699E-2</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>4.6789958818318298E-3</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>4.4533495265364299E-2</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>8.9095198577101298E-3</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>1.4020920245996899E-2</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>1.2354814294577199E-3</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3">
         <v>8.5422207446683197E-3</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3">
         <v>5.2684336785433798E-3</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3">
         <v>7.3847052731617902E-3</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3">
         <v>1.8576998060949299E-2</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3">
         <v>1.8858481460828198E-2</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3">
         <v>7.0083646945273497E-4</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3">
         <v>4.0894128661907603E-3</v>
       </c>
-      <c r="Z3" s="13">
+      <c r="Z3" s="6">
         <v>5.275991780712509E-4</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2">
+        <v>45</v>
+      </c>
+      <c r="B4">
         <v>8.6301166696323896E-3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>3.4538827152272999E-4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>1.1377775499031399E-3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>3.4239556221766999E-4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>1.4730759652811999E-3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>2.2207098988322001E-4</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>6.5082574692260798E-3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>9.5302687495335506E-2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>5.5212149420916096E-3</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>6.3013734105043101E-2</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>0.23921884648087</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4">
         <v>2.1100735030651799E-2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4">
         <v>0.14617574170479899</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4">
         <v>9.9600727545763504E-2</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4">
         <v>3.8521123096354498E-2</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4">
         <v>0.37459409663242799</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4">
         <v>9.4974852352606998E-4</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4">
         <v>3.3353128799228399E-3</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4">
         <v>6.1393911271027002E-2</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4">
         <v>2.7045347582166399E-2</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4">
         <v>0.242690739388911</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4">
         <v>0.28853957242071099</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4">
         <v>4.6942022392738704E-3</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4">
         <v>7.0348276005996798E-3</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="Z4" s="6">
         <v>6.9238401079285902E-3</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2">
+        <v>17</v>
+      </c>
+      <c r="B5">
         <v>2.8499683092667598E-3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>2.5543262310575702E-3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>1.0781040680772299E-3</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="6">
         <v>8.01166291861078E-5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>1.1868207975911E-3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>2.6516665974015202E-3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>4.4266234206208803E-3</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>0.139935105166656</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>3.49201586915103E-3</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>4.5342883415016001E-2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>0.24844027489966</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>4.4280061795766497E-2</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>3.7007130410716099E-2</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>4.8531370160642302E-2</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>6.6884694850921397E-2</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>0.121339553420081</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>7.4747221564776495E-4</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5">
         <v>1.3109150583517399E-2</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5">
         <v>3.5239661492880797E-2</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5">
         <v>3.5896671766897099E-2</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5">
         <v>0.75610957194455897</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5">
         <v>0.86912856054072996</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5">
         <v>2.3381041020054901E-3</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5">
         <v>5.9404502182216403E-3</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="Z5" s="6">
         <v>4.3518796854031004E-2</v>
       </c>
     </row>
@@ -3362,1103 +4408,1662 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>93.381379755339594</v>
       </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="13">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6">
         <v>5.4057263304820606E-3</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1.25739250956335</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.278799797754961</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.26546269575524301</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4.6443764094889199E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.35267292481268397</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1.0430962875651199E-2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.25769921643301702</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5.5321423716405098</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.30362739954071799</v>
-      </c>
-      <c r="K7" s="2">
-        <v>9.0103108563694203</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2.7546078255134199</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1.2401427037214099</v>
-      </c>
-      <c r="P7" s="2">
-        <v>2.5430954886881398</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>24.966605355502701</v>
-      </c>
-      <c r="R7" s="2">
-        <v>7.6886618064072404E-2</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0.164917390252038</v>
-      </c>
-      <c r="T7" s="2">
-        <v>16.057222828803301</v>
-      </c>
-      <c r="U7" s="2">
-        <v>2.12177342686187</v>
-      </c>
-      <c r="V7" s="2">
-        <v>8.3396871700966102</v>
-      </c>
-      <c r="W7" s="2">
-        <v>5.9114462101015901</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0.54037741101062997</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0.18453051859551201</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>1.1753647914248402</v>
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>1.7168243880576508</v>
+      </c>
+      <c r="C7">
+        <v>0.38066895462696598</v>
+      </c>
+      <c r="D7">
+        <v>0.36245868074273557</v>
+      </c>
+      <c r="E7">
+        <v>6.3413600975714093E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.48153418580193386</v>
+      </c>
+      <c r="G7">
+        <v>1.4242276234062214E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.35185854551431167</v>
+      </c>
+      <c r="I7">
+        <v>7.5535020843553111</v>
+      </c>
+      <c r="J7">
+        <v>0.41456818014213415</v>
+      </c>
+      <c r="K7">
+        <v>12.302539823119785</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>3.7610991463740926</v>
+      </c>
+      <c r="O7">
+        <v>1.6932717685426941</v>
+      </c>
+      <c r="P7">
+        <v>3.4723034557088059</v>
+      </c>
+      <c r="Q7">
+        <v>34.08901885078253</v>
+      </c>
+      <c r="R7">
+        <v>0.1049798054336373</v>
+      </c>
+      <c r="S7">
+        <v>0.2251756674595134</v>
+      </c>
+      <c r="T7">
+        <v>21.924285016250657</v>
+      </c>
+      <c r="U7">
+        <v>2.8970367943690918</v>
+      </c>
+      <c r="V7">
+        <v>11.38688055917037</v>
+      </c>
+      <c r="W7">
+        <v>8.0713977099464014</v>
+      </c>
+      <c r="X7">
+        <v>0.73782300349528318</v>
+      </c>
+      <c r="Y7">
+        <v>0.25195513115925677</v>
+      </c>
+      <c r="Z7">
+        <v>1.6048250036762239</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="2">
+        <v>46</v>
+      </c>
+      <c r="B8">
         <v>6.9491325480216699E-3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>2.1969737749757598E-3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>7.0097863297125895E-4</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="6">
         <v>7.3915012240098E-5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>2.7374166801813599E-3</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="6">
         <v>4.5726841879115997E-5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>5.1593450931253296E-3</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>2.4889100511827699E-2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>2.9539960116295701E-3</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>1.1147420568420101E-2</v>
       </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>1.8478952191659299E-2</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8">
         <v>4.1190371278000499E-3</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8">
         <v>2.06923407273416E-2</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8">
         <v>6.3562201650942798E-2</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8">
         <v>3.5171264601502198E-4</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8">
         <v>9.0789912837588901E-4</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8">
         <v>0.12768312830520401</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8">
         <v>3.6653875291888E-3</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8">
         <v>2.5165538248039299E-2</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8">
         <v>3.3910283651410099E-2</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8">
         <v>1.8372738569792199E-2</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8">
         <v>5.8968391539186899E-4</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="Z8" s="6">
         <v>1.95595476942589E-3</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>3.0613701454787E-2</v>
       </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>7.2073407515933203</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9">
         <v>4.3510705517759299E-3</v>
       </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>1.45044535997332</v>
       </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="13">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
         <v>5.5842938637655694E-2</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2">
+        <v>32</v>
+      </c>
+      <c r="B10">
         <v>8.8011753971382001E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>7.3639199427785698E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>4.79919965351134E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>4.5858086598895304E-3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>4.5505537942351598E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>2.16134485004973E-2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>0.100259693063199</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>0.25068637743011501</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>1.5546315059412201E-2</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>0.21477904284646701</v>
       </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>0.183154353408188</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10">
         <v>0.10534732861615299</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10">
         <v>0.33169088293904098</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10">
         <v>0.72976928984701295</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10">
         <v>1.36554128008374E-2</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10">
         <v>7.6678442319332393E-2</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10">
         <v>3.9011110953100601</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10">
         <v>0.22371152853002099</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10">
         <v>0.68447584614639001</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10">
         <v>0.60852269294328398</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10">
         <v>0.128020963794168</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10">
         <v>1.9365732747178999E-2</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10">
         <v>1.7232279154505901</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11">
         <v>0.25754182583634599</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>0.38113584466904998</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>0.46701706224690498</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>2.84654738052811E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>0.35861802621677202</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>0.17949102724507199</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>0.20763220398632701</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>0.57419593649767098</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>2.3796152393152002E-2</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>0.52122164607575305</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <v>3.32221070999084</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11">
         <v>5.0841531475333497</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11">
         <v>0.28404923115331099</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11">
         <v>0.55644817721258999</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11">
         <v>2.6902299512115202</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11">
         <v>0.97440004030814298</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11">
         <v>9.7917751328038E-3</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11">
         <v>0.18733680503901001</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11">
         <v>3.3149036616379099</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11">
         <v>0.55022893944531104</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11">
         <v>1.0018543694942099</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11">
         <v>1.75146703673448</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11">
         <v>7.2748386349790098E-2</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11">
         <v>8.0689377982928995E-2</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11">
         <v>40.2633902501845</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12">
         <v>4.6481794588642003E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>1.11154742713005E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>1.41915682617084E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>3.6822696691892402E-3</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>1.9847124740453699E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>2.4391664380322199E-3</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>1.6192169652884301E-2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>9.9959590376577603E-2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>1.86526144194643E-3</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <v>2.6780192442490299E-2</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12">
         <v>0.75748129815799203</v>
       </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>0.12829055601148401</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12">
         <v>4.2035530728177499E-2</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12">
         <v>6.3977273712534394E-2</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12">
         <v>0.107430561891868</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12">
         <v>5.37613988527716E-3</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12">
         <v>0.20856540619457101</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12">
         <v>4.2735843688373999E-2</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12">
         <v>5.0582230948762297E-2</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12">
         <v>0.942213832093729</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12">
         <v>0.67943895260213405</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12">
         <v>1.47047796729488E-2</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12">
         <v>0.20598860194542501</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12">
         <v>5.8373454989595404</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13">
         <v>0.13363010886298499</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>0.12203870952804299</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>8.1137706460041994E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>2.4926451489221301E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>7.59621987896862E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>6.7749336964283502E-3</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>7.4394599380357196E-2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>0.20792249878914501</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13">
         <v>1.69347524267634E-2</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13">
         <v>0.18261198265194301</v>
       </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>0.230254484694981</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13">
         <v>0.14510532877716001</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13">
         <v>0.72222141810430496</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13">
         <v>0.28700746476408601</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13">
         <v>0.151382468683466</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13">
         <v>1.0867770906482299</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13">
         <v>6.01538259116424</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13">
         <v>0.39208381925925001</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13">
         <v>2.6886329222017902</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13">
         <v>1.2266500105713201</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13">
         <v>0.356610136446461</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y13">
         <v>8.0225146165745095E-2</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="Z13">
         <v>14.1256718846669</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
+        <v>49</v>
+      </c>
+      <c r="B14">
         <v>4.4833362828856103E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>5.9594424766067902E-3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>5.2756163853409904E-3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>4.6501277394384701E-3</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>1.7252310560495299E-2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>1.6434344438869799E-3</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>4.8710559699155699E-2</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>5.8592532319172198E-2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>4.6195775873054401E-3</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14">
         <v>5.8060019646746501E-2</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14">
         <v>0.16621369904379699</v>
       </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>0.114627481955931</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14">
         <v>3.2758836129503102E-2</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14">
         <v>0.18384392385732401</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14">
         <v>0.10763127914310699</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14">
         <v>5.9932364518706501E-3</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14">
         <v>3.5101005934770599E-2</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14">
         <v>0.255088265788179</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14">
         <v>0.35680847757668799</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14">
         <v>0.969401975215055</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14">
         <v>0.92804048261134697</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14">
         <v>3.2696168999170598E-2</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14">
         <v>3.2898562157259198E-2</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="Z14">
         <v>8.0015165385885307</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="2">
+        <v>47</v>
+      </c>
+      <c r="B15">
         <v>2.4700846163787898E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>1.33487730254044E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>8.4005304758773599E-3</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>3.04734707393407E-3</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>1.55856140219581E-2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>1.8168933817853299E-3</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <v>2.9362361470962699E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>7.3655862542227404E-2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <v>7.86296463347823E-3</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
         <v>1.61104249574947E-2</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15">
         <v>0.73341206391441505</v>
       </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>3.08325312123208E-2</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15">
         <v>1.74638476032529E-2</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15">
         <v>8.1454192961831401E-2</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15">
         <v>5.4064335749119397E-2</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15">
         <v>2.67835001725585E-2</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15">
         <v>1.92843880084533E-2</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15">
         <v>9.2714660516282105E-2</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15">
         <v>3.2962402693478603E-2</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15">
         <v>0.257933412156574</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15">
         <v>1.39089164761049</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15">
         <v>4.7724111740373401E-2</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Y15">
         <v>3.2756448793019498E-2</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="Z15">
         <v>4.8000945731975095</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2">
+        <v>48</v>
+      </c>
+      <c r="B16">
         <v>0.15334039829340501</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>1.30068315617213E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>1.24887671202166E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>4.5658627667960004E-3</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>3.4559228306458502E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>3.2135966903956499E-3</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <v>2.05538662625811E-2</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>4.4516231335495399E-2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <v>1.9812150309589799E-3</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16">
         <v>2.7222413559545199E-2</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16">
         <v>0.40694455384922301</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16">
         <v>8.1177125636291994</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16">
         <v>2.5995680913928999E-2</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16">
         <v>2.1196221996902499E-2</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16">
         <v>0.116843522890222</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16">
         <v>0.10494345041999099</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16">
         <v>7.0580221744954699E-3</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16">
         <v>3.3366816526459502E-2</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16">
         <v>0.13195725198842101</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16">
         <v>0.41003719538740802</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16">
         <v>0.39625688124256903</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16">
         <v>1.2313928721415399</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16">
         <v>1.37256099319732E-2</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Y16">
         <v>6.7022351739506505E-2</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="Z16">
         <v>10.734</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2">
+        <v>22</v>
+      </c>
+      <c r="B17">
         <v>3.7405978842692901E-2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>2.7332080088148102E-2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>1.0654650396807099E-2</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>2.0113543331294098E-3</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>2.9482643344209799E-2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>5.6124497961862101E-3</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
         <v>1.44889784551895E-2</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>0.16846898682311201</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17">
         <v>4.6907924108066101E-3</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17">
         <v>8.5732960780462303E-2</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17">
         <v>0.85516940739148595</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17">
         <v>0.32640691597714999</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17">
         <v>0.155791681744226</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17">
         <v>0.156854229503604</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17">
         <v>0.86433743235443905</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17">
         <v>0.36309492901606</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17">
         <v>2.9282715038780201E-3</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17">
         <v>2.75423751257074E-2</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17">
         <v>0.66686713683917198</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17">
         <v>6.3078170569002195E-2</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17">
         <v>0.348640404883926</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17">
         <v>0.99961399679249896</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17">
         <v>5.5048638448430796E-3</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17">
         <v>4.37211876414553E-2</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="Z17">
         <v>4.1112727387633496</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:26" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B$2:B$17)/SUM($B2:$Z17)</f>
+        <v>6.6884461928650527E-3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:Z18" si="0">SUM(C$2:C$17)/SUM($B2:$Z17)</f>
+        <v>2.6862607650176657E-3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2.6310590340925828E-3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>3.6556709873766883E-4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2.8268815182745087E-3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>6.2311292889115539E-4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>2.2979694717024783E-3</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>2.4701479322030605E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1.309891221164515E-3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>3.600498383142154E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>1.9792292083826542E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>3.5651101943680027E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>1.3903275992439868E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>7.6947116652803637E-3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>4.1230098158340583E-2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>9.713202791606404E-2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>8.6225030597756073E-4</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>5.0028767788171651E-3</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>0.34107692219140923</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>1.3254785520342025E-2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>5.3200617564290564E-2</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>4.8022257166188055E-2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="0"/>
+        <v>3.7252789775855028E-3</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>2.1761912677914479E-3</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="0"/>
+        <v>0.2371396610837691</v>
+      </c>
+    </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B2:B17)</f>
+        <v>2.5792257293196026</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:Z19" si="1">SUM(C2:C17)</f>
+        <v>1.0358867636830689</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1.0145996484698472</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.14097146626711882</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1.090113508493135</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.24028733313010744</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0.88615230140128143</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>9.5254845718279526</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0.50512556172484946</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>13.884387794104271</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>7.6323838919823812</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>13.747922426261921</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>5.3614376385035456</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>2.9672658992096079</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>15.899317558359904</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>37.456446283346352</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>0.33250445771148257</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>1.9292296202226697</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>131.5274651280987</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>5.1113641143063058</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>20.515437768474111</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>18.518537443743462</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>1.436557177978304</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>0.83919169683923533</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="1"/>
+        <v>91.446757239649401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>113.8617</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D38" si="2">C23/SUM(C$23:C$38)*100</f>
+        <v>29.52660449312204</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>34.107692219140901</v>
+      </c>
+      <c r="I23">
+        <v>131.5274651280987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>93.386785481670074</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>24.217051737338398</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>23.713966108376912</v>
+      </c>
+      <c r="I24">
+        <v>91.446757239649401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>63.143017058383023</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>16.374240777937914</v>
+      </c>
+      <c r="G25" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2">
-        <v>93.386785481670074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2">
-        <v>83.391640237476565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="H25">
+        <v>9.7132027916064043</v>
+      </c>
+      <c r="I25">
+        <v>37.456446283346352</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>28.434338708222548</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>7.3735898292503776</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26">
+        <v>5.3200617564290562</v>
+      </c>
+      <c r="I26">
+        <v>20.515437768474111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>22.133901405759413</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>5.7397610671333386</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>4.8022257166188052</v>
+      </c>
+      <c r="I27">
+        <v>18.518537443743462</v>
+      </c>
+      <c r="V27" s="6"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <v>11.472216917139537</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>2.9749741271356647</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28">
+        <v>4.1230098158340587</v>
+      </c>
+      <c r="I28">
+        <v>15.899317558359904</v>
+      </c>
+      <c r="V28" s="6"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>9.5913506582884711</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>2.4872280796978208</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <v>3.600498383142154</v>
+      </c>
+      <c r="I29">
+        <v>13.884387794104271</v>
+      </c>
+      <c r="V29" s="6"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>9.3767046172215416</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>2.4315660901034475</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30">
+        <v>3.5651101943680028</v>
+      </c>
+      <c r="I30">
+        <v>13.747922426261921</v>
+      </c>
+      <c r="V30" s="6"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>9.3287211183760412</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>2.4191230140505935</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31">
+        <v>2.4701479322030604</v>
+      </c>
+      <c r="I31">
+        <v>9.5254845718279526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>8.748593822210859</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>2.2686844624609579</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32">
+        <v>1.9792292083826541</v>
+      </c>
+      <c r="I32">
+        <v>7.6323838919823812</v>
+      </c>
+      <c r="V32" s="6"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>7.8122637340765895</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>2.025875438993447</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33">
+        <v>1.3903275992439867</v>
+      </c>
+      <c r="I33">
+        <v>5.3614376385035456</v>
+      </c>
+      <c r="V33" s="6"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>3.3913014742699912</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0.87943195427182019</v>
+      </c>
+      <c r="G34" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34">
+        <v>1.3254785520342025</v>
+      </c>
+      <c r="I34">
+        <v>5.1113641143063058</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="2">
-        <v>63.143017058383023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2">
-        <v>28.434338708222548</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="2">
-        <v>22.133901405759413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2">
-        <v>11.472216917139537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2">
-        <v>9.5913506582884711</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2">
-        <v>9.3767046172215416</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="2">
-        <v>9.3287211183760412</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2">
-        <v>8.748593822210859</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="C35">
+        <v>2.5321091557603017</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>0.65662628939799406</v>
+      </c>
+      <c r="G35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35">
+        <v>0.76947116652803638</v>
+      </c>
+      <c r="I35">
+        <v>2.9672658992096079</v>
+      </c>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>1.7443154915250698</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>0.45233571630747216</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36">
+        <v>0.66884461928650529</v>
+      </c>
+      <c r="I36">
+        <v>2.5792257293196026</v>
+      </c>
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="2">
-        <v>7.8122637340765895</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3.3913014742699912</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="2">
-        <v>2.5321091557603017</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="C37">
+        <v>0.37630886413585879</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>9.7584376472470535E-2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>0.50028767788171646</v>
+      </c>
+      <c r="I37">
+        <v>1.9292296202226697</v>
+      </c>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="2">
-        <v>1.7443154915250698</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.37630886413585879</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="C38">
+        <v>0.29046188413015239</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>7.5322546326271694E-2</v>
+      </c>
+      <c r="G38" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="2">
-        <v>0.29046188413015239</v>
+      <c r="H38">
+        <v>0.37252789775855027</v>
+      </c>
+      <c r="I38">
+        <v>1.436557177978304</v>
+      </c>
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39">
+        <v>0.28268815182745088</v>
+      </c>
+      <c r="I39">
+        <v>1.090113508493135</v>
+      </c>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40">
+        <v>0.26862607650176656</v>
+      </c>
+      <c r="I40">
+        <v>1.0358867636830689</v>
+      </c>
+      <c r="U40" s="2"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41">
+        <v>0.26310590340925827</v>
+      </c>
+      <c r="I41">
+        <v>1.0145996484698472</v>
+      </c>
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42">
+        <v>0.22979694717024782</v>
+      </c>
+      <c r="I42">
+        <v>0.88615230140128143</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43">
+        <v>0.2176191267791448</v>
+      </c>
+      <c r="I43">
+        <v>0.83919169683923533</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44">
+        <v>0.1309891221164515</v>
+      </c>
+      <c r="I44">
+        <v>0.50512556172484946</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45">
+        <v>8.6225030597756075E-2</v>
+      </c>
+      <c r="I45">
+        <v>0.33250445771148257</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46">
+        <v>6.2311292889115542E-2</v>
+      </c>
+      <c r="I46">
+        <v>0.24028733313010744</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>3.6556709873766885E-2</v>
+      </c>
+      <c r="I47">
+        <v>0.14097146626711882</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:B35">
-    <sortCondition descending="1" ref="B20:B35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P26:Q41">
+    <sortCondition descending="1" ref="Q26:Q41"/>
   </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="G21:I21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>